--- a/Documents/Team Backlog.xlsx
+++ b/Documents/Team Backlog.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_workspace\MovingCarProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharb\OneDrive\Documents\GitHub\MovingCarProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FE853D-E5BC-4E25-AD97-1FE988100FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4B300C-10CD-4C3D-B3DA-8956BEE852D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{875C6DCD-AFAF-4A5F-9F21-083CA0FCED6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{875C6DCD-AFAF-4A5F-9F21-083CA0FCED6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Task Name</t>
   </si>
@@ -76,6 +67,42 @@
   </si>
   <si>
     <t>Driver Docs</t>
+  </si>
+  <si>
+    <t>Sharpel Malak</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>3 hours</t>
+  </si>
+  <si>
+    <t>Design PWM with normal mode</t>
+  </si>
+  <si>
+    <t>4 hours</t>
+  </si>
+  <si>
+    <t>6 hours</t>
+  </si>
+  <si>
+    <t>Implement external interrupts</t>
+  </si>
+  <si>
+    <t>Design external interrupts</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>Implement PWM with normal mode</t>
+  </si>
+  <si>
+    <t>test external interrupts Driver</t>
+  </si>
+  <si>
+    <t>test PWM with normal mode Driver</t>
   </si>
 </sst>
 </file>
@@ -140,14 +167,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,16 +490,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C123E326-AE56-4BD1-BFE1-3D77BAFFAE7E}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="25.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="32.7109375" customWidth="1"/>
   </cols>
@@ -510,10 +538,10 @@
       <c r="D2" s="1">
         <v>100</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -528,10 +556,10 @@
       <c r="D3" s="1">
         <v>100</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -546,11 +574,131 @@
       <c r="D4" s="1">
         <v>95</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>45264</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>45264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Team Backlog.xlsx
+++ b/Documents/Team Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharb\OneDrive\Documents\GitHub\MovingCarProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4B300C-10CD-4C3D-B3DA-8956BEE852D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED3FF61-FAC2-43C8-B026-8A870785014C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{875C6DCD-AFAF-4A5F-9F21-083CA0FCED6F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="61">
   <si>
     <t>Task Name</t>
   </si>
@@ -42,33 +42,12 @@
     <t>Task ID</t>
   </si>
   <si>
-    <t>01-MCAL</t>
-  </si>
-  <si>
-    <t>PWM Module</t>
-  </si>
-  <si>
     <t>Assigned</t>
   </si>
   <si>
     <t>Bassel Yasser</t>
   </si>
   <si>
-    <t>FINISHED</t>
-  </si>
-  <si>
-    <t>02-HAL</t>
-  </si>
-  <si>
-    <t>HPWM</t>
-  </si>
-  <si>
-    <t>03-Documentation</t>
-  </si>
-  <si>
-    <t>Driver Docs</t>
-  </si>
-  <si>
     <t>Sharpel Malak</t>
   </si>
   <si>
@@ -103,13 +82,139 @@
   </si>
   <si>
     <t>test PWM with normal mode Driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver Docs </t>
+  </si>
+  <si>
+    <t>MCAL _PWM Module Design</t>
+  </si>
+  <si>
+    <t>HAL_HPWM Design</t>
+  </si>
+  <si>
+    <t>MCAL_PWM Module Implementation</t>
+  </si>
+  <si>
+    <t>HAL_HPWM Implementaton</t>
+  </si>
+  <si>
+    <t>PWM Module Testing</t>
+  </si>
+  <si>
+    <t>1.5 hour</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
+  </si>
+  <si>
+    <t>1.25 hour</t>
+  </si>
+  <si>
+    <t>45 minutes</t>
+  </si>
+  <si>
+    <t>HAL_PushButton Design</t>
+  </si>
+  <si>
+    <t>HAL_PushButton Implementation</t>
+  </si>
+  <si>
+    <t>HAL_PushButton Testing</t>
+  </si>
+  <si>
+    <t>HAL_LED Design</t>
+  </si>
+  <si>
+    <t>HAL_LED Implementation</t>
+  </si>
+  <si>
+    <t>HAL_LED Testing</t>
+  </si>
+  <si>
+    <t>MCAL_DIO Design</t>
+  </si>
+  <si>
+    <t>MCAL_DIO Implementation</t>
+  </si>
+  <si>
+    <t>MCAL_DIO Testing</t>
+  </si>
+  <si>
+    <t>COMMON_STDTYPES</t>
+  </si>
+  <si>
+    <t>COMMON_BitMath</t>
+  </si>
+  <si>
+    <t>Sherif Ashraf</t>
+  </si>
+  <si>
+    <t>20 minutes</t>
+  </si>
+  <si>
+    <t>15 minutes</t>
+  </si>
+  <si>
+    <t>10 minutes</t>
+  </si>
+  <si>
+    <t>MCAL_TIMER0 Design</t>
+  </si>
+  <si>
+    <t>MCAL_TIMER0 Implementation</t>
+  </si>
+  <si>
+    <t>MCAL_TIMER0 Testing</t>
+  </si>
+  <si>
+    <t>HAL_TIMER0_HANDLER Implementation</t>
+  </si>
+  <si>
+    <t>HAL_TIMER0_HANDLER Testing</t>
+  </si>
+  <si>
+    <t>HAL_MOTOR Design</t>
+  </si>
+  <si>
+    <t>HAL_MOTOR Implementation</t>
+  </si>
+  <si>
+    <t>HAL_MOTOR Testing</t>
+  </si>
+  <si>
+    <t>COMMON_VECTOR Table</t>
+  </si>
+  <si>
+    <t>Alaa Hisham</t>
+  </si>
+  <si>
+    <t>Integrate all Drivers</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>8 hours</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>5 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAL_TIMER0_HANDLER Design </t>
+  </si>
+  <si>
+    <t>Documentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +231,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -159,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -167,14 +286,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C123E326-AE56-4BD1-BFE1-3D77BAFFAE7E}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,8 +623,7 @@
     <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
     <col min="3" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="5" max="6" width="32.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -513,72 +634,76 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="1">
         <v>100</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
+      <c r="A3" s="1">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5"/>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
+      <c r="A4" s="1">
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
-        <v>95</v>
-      </c>
-      <c r="E4" s="3">
-        <v>45264</v>
-      </c>
-      <c r="F4" s="4">
-        <v>45264</v>
+        <v>100</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -586,19 +711,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>100</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -606,19 +731,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>100</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -626,19 +751,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>100</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -646,19 +771,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <v>100</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -666,19 +791,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
         <v>100</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -686,28 +811,565 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>100</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>100</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>100</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1">
+        <v>100</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1">
+        <v>100</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1">
+        <v>100</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1">
+        <v>100</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1">
+        <v>100</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1">
+        <v>100</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1">
+        <v>100</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1">
+        <v>100</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1">
-        <v>100</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="1" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="1">
+        <v>100</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="1">
+        <v>100</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="1">
+        <v>100</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="1">
+        <v>100</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="1">
+        <v>100</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="1">
+        <v>100</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="1">
+        <v>100</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="1">
+        <v>100</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="1">
+        <v>100</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="1">
+        <v>100</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="1">
+        <v>100</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="1">
+        <v>100</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="1">
+        <v>100</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="1">
+        <v>100</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="1">
+        <v>100</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="1">
+        <v>100</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D2:D51">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -721,6 +1383,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
